--- a/biology/Médecine/Loa_loa/Loa_loa.xlsx
+++ b/biology/Médecine/Loa_loa/Loa_loa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Filaire loa, Loa loa, est une espèce de vers filiformes dont la présence dans le tissu cellulaire sous-cutané chez l'homme détermine la loase, ou filariose à Loa[2]. Ce parasite est originaire d'afrique centrale et occidentale et son cycle de vie commence lorsqu'il est transmis par une femelle chrysops.
+La Filaire loa, Loa loa, est une espèce de vers filiformes dont la présence dans le tissu cellulaire sous-cutané chez l'homme détermine la loase, ou filariose à Loa. Ce parasite est originaire d'afrique centrale et occidentale et son cycle de vie commence lorsqu'il est transmis par une femelle chrysops.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition géographique et importance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Strictement limitée à une large bande de territoire africain sur le pourtour du golfe de Guinée, c'est une filariose peu importante par son faible degré de pathogénicité, si l'on excepte quelques très rares cas.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Petits vers blancs, opalins, à cuticule bosselée ; le mâle mesure 3 cm, la femelle, deux fois plus.
 </t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes, très mobiles, vivent, souvent plus de 20 ans, dans le tissu cellulaire sous-cutané de l'homme, se déplaçant sans cesse à la vitesse de 1 cm par minute. Ils ont une prédilection particulière pour l’œil.
 Le cycle évolutif est à deux hôtes : l'homme, hôte définitif et une mouche tabanide, la Chrysops femelle, hématophage piquant aux heures chaudes.
@@ -607,7 +625,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux manifestations cliniques habituelles de cette filariose bénigne sont les œdèmes de Calabar et les troubles oculaires :
 les œdèmes de Calabar sont de petits placards œdémateux de quelques centimètres, indolores, fugaces, migrateurs, localisés au dos des mains et des doigts, à la face, aux membres. Ils sont associés à un prurit continu, insupportable, et à une éosinophilie atteignant souvent 80 % ;
@@ -641,7 +661,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les œdèmes fugaces, le prurit, les troubles oculaires et l'éosinophilie commandent la confirmation parasitaire par découverte :
 des larves dans le sang périphérique pendant les heures chaudes (11h. - 15h.), soit par étalement direct, soit par hémolyse et concentration ;
@@ -673,7 +695,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est dépendant du nombre de larves retrouvées dans le sang (microfilarémie); l'albendazole est utilisé pour le traitement des loases dont la microfilarémie est supérieure à 8000/ml. Pour les charges parasitaires comprises entre 2000 et 8000/ml, l'ivermectine est préconisée. Enfin, lorsque le nombre de larves circulantes passent sous le nombre 2000/ml, la diéthylcarbamazine (DEC) prend le relais pour éradiquer le parasite, sous ces formes larvaire et adulte.
 Il est généralement associé à un traitement anti-histaminique ou corticoïde pour réduire le risque d'effets secondaires et de réactions immunoallergiques dus à la lyse des parasites.
